--- a/bence_aron_balazs_milan_dani_viktor_112feladat.xlsx
+++ b/bence_aron_balazs_milan_dani_viktor_112feladat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikto\Desktop\python_112\Github\Python_112_github_ADGMSBADBBVV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46384CD0-C579-405F-8829-E0AE5C1D7D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FA426F-7185-4EF5-8094-FB86AE9D7B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -63,9 +63,6 @@
     <t>Hiba</t>
   </si>
   <si>
-    <t>Github:</t>
-  </si>
-  <si>
     <t>PDF</t>
   </si>
   <si>
@@ -76,18 +73,29 @@
   </si>
   <si>
     <t>TXT</t>
+  </si>
+  <si>
+    <t>Github:      https://github.com/Viktor021/Python_112_ADGMSBADBBVV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -125,7 +133,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,6 +166,12 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -183,12 +197,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -198,39 +213,40 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
+    <cellStyle name="20% - 3. jelölőszín" xfId="5" builtinId="38"/>
     <cellStyle name="Cím" xfId="4" builtinId="15"/>
     <cellStyle name="Jelölőszín 1" xfId="1" builtinId="29"/>
     <cellStyle name="Jelölőszín 4" xfId="2" builtinId="41"/>
@@ -513,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,15 +547,15 @@
     <col min="10" max="10" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -554,7 +570,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -571,13 +587,13 @@
         <v>9</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -589,7 +605,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -601,7 +617,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -612,15 +628,16 @@
         <v>77</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="F6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>4</v>
       </c>
@@ -632,7 +649,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -644,7 +661,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -656,7 +673,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -668,7 +685,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -680,7 +697,7 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -692,7 +709,7 @@
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -704,7 +721,7 @@
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -716,7 +733,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -728,7 +745,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -895,7 +912,7 @@
         <v>101</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -927,7 +944,7 @@
         <v>105</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -975,7 +992,7 @@
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C42" s="13"/>
+      <c r="C42" s="11"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C43" s="3">
@@ -1002,7 +1019,7 @@
         <v>34</v>
       </c>
       <c r="D47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1010,7 +1027,7 @@
         <v>35</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
@@ -1101,7 +1118,7 @@
   </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="F6:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
